--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>表名</t>
   </si>
@@ -159,6 +159,45 @@
   </si>
   <si>
     <t>外键，关联到ScenicSpot表</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>情感分析结果</t>
+  </si>
+  <si>
+    <t>sentiment_score</t>
+  </si>
+  <si>
+    <t>DECIMAL(4,3)</t>
+  </si>
+  <si>
+    <t>情感分析分数</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>topic_id</t>
+  </si>
+  <si>
+    <t>主题ID(主键)</t>
+  </si>
+  <si>
+    <t>topic_word</t>
+  </si>
+  <si>
+    <t>主题名(每条评论提取一个主题)</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>地区(初步分为国内0国外1)</t>
+  </si>
+  <si>
+    <t>评论ID(外键）</t>
   </si>
 </sst>
 </file>
@@ -171,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +221,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,148 +675,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1338,6 +1370,88 @@
         <v>43</v>
       </c>
     </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -167,7 +167,7 @@
     <t>情感分析结果</t>
   </si>
   <si>
-    <t>sentiment_score</t>
+    <t>sentiment_confidence</t>
   </si>
   <si>
     <t>DECIMAL(4,3)</t>
@@ -1151,14 +1151,14 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="17.0666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.05" customWidth="1"/>
     <col min="3" max="3" width="20.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="29.25" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>表名</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>comment_time</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
   </si>
   <si>
     <t>评论时间</t>
@@ -1151,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1331,32 +1328,32 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1367,56 +1364,56 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1427,18 +1424,18 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -1449,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>表名</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>comment_time</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
   <si>
     <t>评论时间</t>
@@ -1148,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1328,32 +1331,32 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1364,56 +1367,56 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1424,18 +1427,18 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -1446,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>表名</t>
   </si>
@@ -128,6 +128,9 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
     <t>用户ID</t>
   </si>
   <si>
@@ -195,6 +198,30 @@
   </si>
   <si>
     <t>评论ID(外键）</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>token_id</t>
+  </si>
+  <si>
+    <t>词语ID(主键)</t>
+  </si>
+  <si>
+    <t>token_name</t>
+  </si>
+  <si>
+    <t>词语名</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>频次</t>
+  </si>
+  <si>
+    <t>外键，关联到scenicspot表</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1306,54 +1333,54 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1364,56 +1391,56 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1424,18 +1451,18 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -1446,7 +1473,78 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
+    <sheet name="文学影视" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
   <si>
     <t>表名</t>
   </si>
@@ -222,6 +223,51 @@
   </si>
   <si>
     <t>外键，关联到scenicspot表</t>
+  </si>
+  <si>
+    <t>liter_type</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>文学类型ID(主键)</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>文学类型名称</t>
+  </si>
+  <si>
+    <t>literature</t>
+  </si>
+  <si>
+    <t>liter_id</t>
+  </si>
+  <si>
+    <t>文学ID(主键)</t>
+  </si>
+  <si>
+    <t>liter_name</t>
+  </si>
+  <si>
+    <t>文学名称</t>
+  </si>
+  <si>
+    <t>外键，关联到liter_type表</t>
+  </si>
+  <si>
+    <t>user_comment_literature</t>
+  </si>
+  <si>
+    <t>外键，关联到literature表</t>
+  </si>
+  <si>
+    <t>liter_topic</t>
+  </si>
+  <si>
+    <t>liter_token</t>
   </si>
 </sst>
 </file>
@@ -234,10 +280,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -714,145 +766,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,8 +1230,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1204,7 +1259,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1231,7 +1286,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1250,7 +1305,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
@@ -1261,7 +1316,7 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
@@ -1283,10 +1338,10 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1294,10 +1349,10 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1305,15 +1360,15 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1324,7 +1379,7 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1332,10 +1387,10 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1346,7 +1401,7 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1357,7 +1412,7 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1368,7 +1423,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1379,7 +1434,7 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1417,7 +1472,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1472,12 +1527,12 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1551,4 +1606,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.7416666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="46.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
   <si>
     <t>表名</t>
   </si>
@@ -177,6 +177,12 @@
     <t>情感分析分数</t>
   </si>
   <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>数据来源平台</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
   </si>
   <si>
     <t>liter_topic</t>
+  </si>
+  <si>
+    <t>外键，关联到user_comment_literature</t>
   </si>
   <si>
     <t>liter_token</t>
@@ -1228,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D35"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1471,19 +1480,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1492,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
@@ -1500,50 +1509,50 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1552,7 +1561,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>61</v>
@@ -1560,46 +1569,57 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1611,10 +1631,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1641,56 +1661,56 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1717,18 +1737,18 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1799,13 +1819,13 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1830,20 +1850,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1851,7 +1871,7 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -1859,51 +1879,51 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -1911,7 +1931,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>61</v>
@@ -1919,46 +1939,57 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="25800" windowHeight="13000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
     <sheet name="文学影视" sheetId="2" r:id="rId2"/>
+    <sheet name="非遗民俗" sheetId="3" r:id="rId3"/>
+    <sheet name="美食文化" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="110">
   <si>
     <t>表名</t>
   </si>
@@ -261,6 +263,9 @@
     <t>文学名称</t>
   </si>
   <si>
+    <t>文学简介</t>
+  </si>
+  <si>
     <t>外键，关联到liter_type表</t>
   </si>
   <si>
@@ -277,6 +282,84 @@
   </si>
   <si>
     <t>liter_token</t>
+  </si>
+  <si>
+    <t>folk_type</t>
+  </si>
+  <si>
+    <t>民俗类型ID(主键)</t>
+  </si>
+  <si>
+    <t>民俗类型名称</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>folk_id</t>
+  </si>
+  <si>
+    <t>民俗ID(主键)</t>
+  </si>
+  <si>
+    <t>folk_name</t>
+  </si>
+  <si>
+    <t>民俗名称</t>
+  </si>
+  <si>
+    <t>folk_tag</t>
+  </si>
+  <si>
+    <t>民俗类别</t>
+  </si>
+  <si>
+    <t>民俗简介</t>
+  </si>
+  <si>
+    <t>外键，关联到folk_type表</t>
+  </si>
+  <si>
+    <t>user_comment_folk</t>
+  </si>
+  <si>
+    <t>外键，关联到folk表</t>
+  </si>
+  <si>
+    <t>folk_topic</t>
+  </si>
+  <si>
+    <t>外键，关联到user_comment_folk</t>
+  </si>
+  <si>
+    <t>folk_token</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>food_id</t>
+  </si>
+  <si>
+    <t>food_name</t>
+  </si>
+  <si>
+    <t>food_tag</t>
+  </si>
+  <si>
+    <t>user_comment_food</t>
+  </si>
+  <si>
+    <t>外键，关联到food表</t>
+  </si>
+  <si>
+    <t>food_topic</t>
+  </si>
+  <si>
+    <t>外键，关联到user_comment_food</t>
+  </si>
+  <si>
+    <t>food_token</t>
   </si>
 </sst>
 </file>
@@ -1633,8 +1716,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1721,7 +1804,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1743,12 +1826,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1825,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1863,7 +1946,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1896,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1918,12 +2001,12 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -1989,7 +2072,732 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="40.7916666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="47.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="2:4">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="2:4">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="13000" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="110">
   <si>
     <t>表名</t>
   </si>
@@ -44,7 +44,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>City</t>
+    <t>city</t>
   </si>
   <si>
     <t>city_id</t>
@@ -65,7 +65,7 @@
     <t>城市名称</t>
   </si>
   <si>
-    <t>ScenicSpot</t>
+    <t>scenicspot</t>
   </si>
   <si>
     <t>spot_id</t>
@@ -119,7 +119,7 @@
     <t>外键，关联到City表</t>
   </si>
   <si>
-    <t>UserComment</t>
+    <t>usercomment</t>
   </si>
   <si>
     <t>comment_id</t>
@@ -185,7 +185,7 @@
     <t>数据来源平台</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>topic</t>
   </si>
   <si>
     <t>topic_id</t>
@@ -209,7 +209,7 @@
     <t>评论ID(外键）</t>
   </si>
   <si>
-    <t>Token</t>
+    <t>token</t>
   </si>
   <si>
     <t>token_id</t>
@@ -284,40 +284,40 @@
     <t>liter_token</t>
   </si>
   <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>folk_id</t>
+  </si>
+  <si>
+    <t>民俗ID(主键)</t>
+  </si>
+  <si>
+    <t>folk_name</t>
+  </si>
+  <si>
+    <t>民俗名称</t>
+  </si>
+  <si>
     <t>folk_type</t>
   </si>
   <si>
-    <t>民俗类型ID(主键)</t>
-  </si>
-  <si>
-    <t>民俗类型名称</t>
-  </si>
-  <si>
-    <t>folk</t>
-  </si>
-  <si>
-    <t>folk_id</t>
-  </si>
-  <si>
-    <t>民俗ID(主键)</t>
-  </si>
-  <si>
-    <t>folk_name</t>
-  </si>
-  <si>
-    <t>民俗名称</t>
-  </si>
-  <si>
-    <t>folk_tag</t>
-  </si>
-  <si>
     <t>民俗类别</t>
   </si>
   <si>
     <t>民俗简介</t>
   </si>
   <si>
-    <t>外键，关联到folk_type表</t>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>入选批次</t>
+  </si>
+  <si>
+    <t>folk_rank</t>
+  </si>
+  <si>
+    <t>非遗等级(国家级、省级)</t>
   </si>
   <si>
     <t>user_comment_folk</t>
@@ -372,7 +372,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,13 +382,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -858,133 +851,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1351,11 +1344,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1366,7 +1360,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1378,11 +1373,12 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1389,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1401,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1413,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1425,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1437,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1449,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1460,11 +1462,12 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1475,7 +1478,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1490,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1502,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1508,7 +1514,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1519,7 +1526,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1538,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1550,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1562,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -1563,7 +1574,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>49</v>
       </c>
@@ -1575,11 +1587,12 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1590,7 +1603,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -1601,7 +1615,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1612,7 +1627,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1623,7 +1639,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -1635,7 +1652,7 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1717,7 +1734,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2084,10 +2101,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2120,51 +2137,57 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2174,286 +2197,264 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>100</v>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2468,7 +2469,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2507,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2518,7 +2519,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2529,7 +2530,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2540,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2570,7 +2571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="2:4">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="2:4">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>41</v>
       </c>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="20752" windowHeight="9195" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
     <sheet name="文学影视" sheetId="2" r:id="rId2"/>
     <sheet name="非遗民俗" sheetId="3" r:id="rId3"/>
     <sheet name="美食文化" sheetId="4" r:id="rId4"/>
+    <sheet name="用户画像" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="154">
   <si>
     <t>表名</t>
   </si>
@@ -360,6 +361,138 @@
   </si>
   <si>
     <t>food_token</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>用户ID(主键)</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>用户昵称</t>
+  </si>
+  <si>
+    <t>user_pwd</t>
+  </si>
+  <si>
+    <t>用户密码</t>
+  </si>
+  <si>
+    <t>user_age</t>
+  </si>
+  <si>
+    <t>用户年龄</t>
+  </si>
+  <si>
+    <t>user_sex</t>
+  </si>
+  <si>
+    <t>ENUM('male', 'female', 'other')</t>
+  </si>
+  <si>
+    <t>用户性别</t>
+  </si>
+  <si>
+    <t>user_region</t>
+  </si>
+  <si>
+    <t>用户所在区域</t>
+  </si>
+  <si>
+    <t>user_avatar</t>
+  </si>
+  <si>
+    <t>用户头像路径</t>
+  </si>
+  <si>
+    <t>user_tags</t>
+  </si>
+  <si>
+    <t>用户标签，可以存储用户的兴趣标签，采用逗号分隔（可选使用 JSON 格式）</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>标签ID(主键）</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>theme_name</t>
+  </si>
+  <si>
+    <t>标签主题</t>
+  </si>
+  <si>
+    <t>origin_id</t>
+  </si>
+  <si>
+    <t>标签在原主题表中ID</t>
+  </si>
+  <si>
+    <t>total_clicks</t>
+  </si>
+  <si>
+    <t>标签总点击量</t>
+  </si>
+  <si>
+    <t>total_likes</t>
+  </si>
+  <si>
+    <t>标签总收藏量</t>
+  </si>
+  <si>
+    <t>tag_user</t>
+  </si>
+  <si>
+    <t>用户 ID，引用 user 表的 user_id</t>
+  </si>
+  <si>
+    <t>标签 ID，引用 tag 表的 tag_id</t>
+  </si>
+  <si>
+    <t>click_count</t>
+  </si>
+  <si>
+    <t>用户对标签的点击次数</t>
+  </si>
+  <si>
+    <t>is_favorite</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>用户是否收藏该标签，存储 true/false 值</t>
+  </si>
+  <si>
+    <t>user_comment_tag</t>
+  </si>
+  <si>
+    <t>用户ID，引用 user 表的 user_id</t>
+  </si>
+  <si>
+    <t>外键，引用 tag 表的 tag_id</t>
+  </si>
+  <si>
+    <t>comment-user</t>
+  </si>
+  <si>
+    <t>喜欢该评论的用户 ID，引用 user 表的 user_id</t>
+  </si>
+  <si>
+    <t>评论 ID，引用 user_comment_tag 表的 comment_id</t>
   </si>
 </sst>
 </file>
@@ -981,15 +1114,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1315,17 +1445,17 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.0666666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.05" customWidth="1"/>
-    <col min="3" max="3" width="20.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.25" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="13.2300884955752" customWidth="1"/>
+    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
+    <col min="3" max="3" width="13.2920353982301" customWidth="1"/>
+    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
+    <col min="5" max="5" width="19.5044247787611" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1349,7 +1479,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1491,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1508,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1389,8 +1519,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
+    <row r="7" ht="13.9" spans="1:4">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1401,8 +1531,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
+    <row r="8" ht="13.9" spans="1:4">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1544,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1425,8 +1555,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
+    <row r="10" ht="13.9" spans="1:4">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1437,8 +1567,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
+    <row r="11" ht="13.9" spans="1:4">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1449,8 +1579,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
+    <row r="12" ht="13.9" spans="1:4">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1466,8 +1596,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
+    <row r="14" ht="13.9" spans="1:4">
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1478,8 +1608,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
+    <row r="15" ht="13.9" spans="1:4">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1490,8 +1620,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
+    <row r="16" ht="13.9" spans="1:4">
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1502,8 +1632,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
+    <row r="17" ht="13.9" spans="1:4">
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1514,8 +1644,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
+    <row r="18" ht="13.9" spans="1:4">
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1526,8 +1656,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
+    <row r="19" ht="13.9" spans="1:4">
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1539,7 +1669,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1551,7 +1681,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1563,7 +1693,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -1575,7 +1705,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>49</v>
       </c>
@@ -1592,7 +1722,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1604,7 +1734,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -1616,7 +1746,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1758,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1639,8 +1769,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
+    <row r="29" ht="13.9" spans="1:4">
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -1733,16 +1863,16 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66371681415929" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.2666666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.7416666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="46.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="23.2743362831858" customWidth="1"/>
+    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
+    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="32.5221238938053" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1764,7 +1894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="13.9" spans="2:4">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1813,7 +1943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="13.9" spans="2:4">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +1954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="13.9" spans="2:4">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1835,7 +1965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="13.9" spans="2:4">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1851,7 +1981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="13.9" spans="2:4">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1862,7 +1992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="13.9" spans="2:4">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1873,7 +2003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" ht="13.9" spans="2:4">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1884,7 +2014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" ht="13.9" spans="2:4">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1895,7 +2025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" ht="13.9" spans="2:4">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1906,7 +2036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" ht="13.9" spans="2:4">
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -2010,7 +2140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" ht="13.9" spans="2:4">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2103,17 +2233,17 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66371681415929" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.0833333333333" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="40.7916666666667" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.4159292035398" customWidth="1"/>
+    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
+    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
+    <col min="5" max="5" width="20.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2168,7 +2298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="13.9" spans="2:4">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" ht="13.9" spans="2:4">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="13.9" spans="2:4">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -2217,7 +2347,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="13.9" spans="2:4">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -2228,7 +2358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="13.9" spans="2:4">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="13.9" spans="2:4">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -2250,7 +2380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" ht="13.9" spans="2:4">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" ht="13.9" spans="2:4">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -2272,7 +2402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" ht="13.9" spans="2:4">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" ht="13.9" spans="2:4">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2469,16 +2599,16 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66371681415929" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="47.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="19.4867256637168" customWidth="1"/>
+    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
+    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2533,7 +2663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="13.9" spans="2:4">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" ht="13.9" spans="2:4">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -2560,7 +2690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="13.9" spans="2:4">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2571,7 +2701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="13.9" spans="2:4">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -2582,7 +2712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="13.9" spans="2:4">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -2593,7 +2723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="13.9" spans="2:4">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -2604,7 +2734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="13.9" spans="2:4">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2615,7 +2745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" ht="13.9" spans="2:4">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -2719,7 +2849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" ht="13.9" spans="2:4">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -2799,6 +2929,409 @@
       </c>
       <c r="D31" t="s">
         <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.4867256637168" customWidth="1"/>
+    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
+    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" ht="13.9" spans="2:4">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="27.75" spans="2:4">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" ht="13.9" spans="2:4">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" ht="13.9" spans="2:4">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" ht="13.9" spans="2:4">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" ht="13.9" spans="2:4">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" ht="13.9" spans="2:4">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" ht="13.9" spans="2:4">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" ht="13.9" spans="2:4">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" ht="13.9" spans="2:4">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" ht="13.9" spans="2:4">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="13.9" spans="2:4">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" ht="13.9" spans="2:4">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="13.9" spans="2:4">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9195" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="20752" windowHeight="9555" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="154">
   <si>
     <t>表名</t>
   </si>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:D36"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
@@ -1863,7 +1863,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
@@ -2940,10 +2940,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="3"/>
@@ -3334,6 +3334,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="非遗民俗" sheetId="3" r:id="rId3"/>
     <sheet name="美食文化" sheetId="4" r:id="rId4"/>
     <sheet name="用户画像" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="152">
   <si>
     <t>表名</t>
   </si>
@@ -66,7 +67,7 @@
     <t>城市名称</t>
   </si>
   <si>
-    <t>scenicspot</t>
+    <t>spot</t>
   </si>
   <si>
     <t>spot_id</t>
@@ -120,7 +121,7 @@
     <t>外键，关联到City表</t>
   </si>
   <si>
-    <t>usercomment</t>
+    <t>user_comment_spot</t>
   </si>
   <si>
     <t>comment_id</t>
@@ -186,7 +187,7 @@
     <t>数据来源平台</t>
   </si>
   <si>
-    <t>topic</t>
+    <t>spot_topic</t>
   </si>
   <si>
     <t>topic_id</t>
@@ -210,7 +211,7 @@
     <t>评论ID(外键）</t>
   </si>
   <si>
-    <t>token</t>
+    <t>spot_token</t>
   </si>
   <si>
     <t>token_id</t>
@@ -408,12 +409,6 @@
     <t>用户头像路径</t>
   </si>
   <si>
-    <t>user_tags</t>
-  </si>
-  <si>
-    <t>用户标签，可以存储用户的兴趣标签，采用逗号分隔（可选使用 JSON 格式）</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -477,7 +472,7 @@
     <t>用户是否收藏该标签，存储 true/false 值</t>
   </si>
   <si>
-    <t>user_comment_tag</t>
+    <t>user_comment</t>
   </si>
   <si>
     <t>用户ID，引用 user 表的 user_id</t>
@@ -486,7 +481,7 @@
     <t>外键，引用 tag 表的 tag_id</t>
   </si>
   <si>
-    <t>comment-user</t>
+    <t>comment_likes</t>
   </si>
   <si>
     <t>喜欢该评论的用户 ID，引用 user 表的 user_id</t>
@@ -1445,17 +1440,17 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.2300884955752" customWidth="1"/>
-    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
-    <col min="3" max="3" width="13.2920353982301" customWidth="1"/>
-    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
-    <col min="5" max="5" width="19.5044247787611" customWidth="1"/>
+    <col min="1" max="1" width="18.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.3" customWidth="1"/>
+    <col min="4" max="4" width="29.725" customWidth="1"/>
+    <col min="5" max="5" width="19.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1519,7 +1514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="13.9" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>14</v>
@@ -1531,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="13.9" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>17</v>
@@ -1555,7 +1550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="13.9" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>22</v>
@@ -1567,7 +1562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="13.9" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -1579,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="13.9" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>5</v>
@@ -1596,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="13.9" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>30</v>
@@ -1608,7 +1603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="13.9" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>32</v>
@@ -1620,7 +1615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="13.9" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>35</v>
@@ -1632,7 +1627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="13.9" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>37</v>
@@ -1644,7 +1639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="13.9" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>39</v>
@@ -1656,7 +1651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="13.9" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>41</v>
@@ -1769,7 +1764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="13.9" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>30</v>
@@ -1867,12 +1862,12 @@
       <selection activeCell="C21" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66371681415929" defaultRowHeight="13.85" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.2743362831858" customWidth="1"/>
-    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
-    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
-    <col min="4" max="4" width="32.5221238938053" customWidth="1"/>
+    <col min="1" max="1" width="23.275" customWidth="1"/>
+    <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.425" customWidth="1"/>
+    <col min="4" max="4" width="32.525" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1894,7 +1889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" ht="13.9" spans="2:4">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1943,7 +1938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="13.9" spans="2:4">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" ht="13.9" spans="2:4">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +1960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="13.9" spans="2:4">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1981,7 +1976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" ht="13.9" spans="2:4">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +1987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="13.9" spans="2:4">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="13.9" spans="2:4">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="13.9" spans="2:4">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" ht="13.9" spans="2:4">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" ht="13.9" spans="2:4">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -2140,7 +2135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="13.9" spans="2:4">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2233,17 +2228,17 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B22" sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66371681415929" defaultRowHeight="13.85" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.4159292035398" customWidth="1"/>
-    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
-    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
-    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
-    <col min="5" max="5" width="20.6637168141593" customWidth="1"/>
+    <col min="1" max="1" width="18.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.425" customWidth="1"/>
+    <col min="4" max="4" width="29.725" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2298,7 +2293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" ht="13.9" spans="2:4">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" ht="13.9" spans="2:4">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -2320,7 +2315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="13.9" spans="2:4">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -2347,7 +2342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" ht="13.9" spans="2:4">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="13.9" spans="2:4">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -2369,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="13.9" spans="2:4">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -2380,7 +2375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="13.9" spans="2:4">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2391,7 +2386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="13.9" spans="2:4">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="13.9" spans="2:4">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" ht="13.9" spans="2:4">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2603,12 +2598,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66371681415929" defaultRowHeight="13.85" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.4867256637168" customWidth="1"/>
-    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
-    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
-    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
+    <col min="1" max="1" width="19.4833333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.425" customWidth="1"/>
+    <col min="4" max="4" width="29.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2663,7 +2658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" ht="13.9" spans="2:4">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2674,7 +2669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" ht="13.9" spans="2:4">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -2690,7 +2685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" ht="13.9" spans="2:4">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2701,7 +2696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="13.9" spans="2:4">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -2712,7 +2707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="13.9" spans="2:4">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -2723,7 +2718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="13.9" spans="2:4">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -2734,7 +2729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="13.9" spans="2:4">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2745,7 +2740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="13.9" spans="2:4">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -2849,7 +2844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="13.9" spans="2:4">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -2940,18 +2935,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.4867256637168" customWidth="1"/>
-    <col min="2" max="2" width="20.6902654867257" customWidth="1"/>
-    <col min="3" max="3" width="14.4247787610619" customWidth="1"/>
-    <col min="4" max="4" width="29.7256637168142" customWidth="1"/>
+    <col min="1" max="1" width="19.4833333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.425" customWidth="1"/>
+    <col min="4" max="4" width="29.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3006,7 +3001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="13.9" spans="2:4">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -3017,7 +3012,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="2:4">
+    <row r="7" ht="28" spans="2:4">
       <c r="B7" t="s">
         <v>118</v>
       </c>
@@ -3050,34 +3045,34 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>125</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" ht="13.9" spans="2:4">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" ht="13.9" spans="2:4">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -3088,18 +3083,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" ht="13.9" spans="2:4">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" ht="13.9" spans="2:4">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>134</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" ht="13.9" spans="2:4">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -3121,36 +3116,36 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" ht="13.9" spans="2:4">
-      <c r="B17" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -3164,189 +3159,172 @@
         <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
         <v>145</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" ht="13.9" spans="2:4">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" ht="13.9" spans="2:4">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" ht="13.9" spans="2:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" ht="13.9" spans="2:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" ht="13.9" spans="2:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" ht="13.9" spans="2:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>42</v>
+      <c r="D29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>151</v>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="154">
   <si>
     <t>表名</t>
   </si>
@@ -466,10 +466,10 @@
     <t>is_favorite</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>用户是否收藏该标签，存储 true/false 值</t>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>用户是否收藏该标签，存储 1/0 值</t>
   </si>
   <si>
     <t>user_comment</t>
@@ -481,7 +481,13 @@
     <t>外键，引用 tag 表的 tag_id</t>
   </si>
   <si>
-    <t>comment_likes</t>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>审核状态（0审核不通过，1审核通过，null待审核）</t>
+  </si>
+  <si>
+    <t>comment_like</t>
   </si>
   <si>
     <t>喜欢该评论的用户 ID，引用 user 表的 user_id</t>
@@ -1858,8 +1864,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2229,7 +2235,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:D33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2935,10 +2941,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2946,7 +2952,7 @@
     <col min="1" max="1" width="19.4833333333333" customWidth="1"/>
     <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
     <col min="3" max="3" width="14.425" customWidth="1"/>
-    <col min="4" max="4" width="29.725" customWidth="1"/>
+    <col min="4" max="4" width="47.3166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3280,31 +3286,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="30720" windowHeight="13360" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="非遗民俗" sheetId="3" r:id="rId3"/>
     <sheet name="美食文化" sheetId="4" r:id="rId4"/>
     <sheet name="用户画像" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="过滤评论" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="155">
   <si>
     <t>表名</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>评论 ID，引用 user_comment_tag 表的 comment_id</t>
+  </si>
+  <si>
+    <t>filtered_user_comment</t>
   </si>
 </sst>
 </file>
@@ -1119,11 +1122,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1446,8 +1449,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1475,12 +1478,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1495,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1504,12 +1507,12 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1521,11 +1524,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
@@ -1533,11 +1536,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
@@ -1545,7 +1548,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1557,120 +1560,120 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1694,7 +1697,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>49</v>
       </c>
@@ -1718,12 +1721,12 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1735,7 +1738,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1762,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1771,19 +1774,19 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1899,7 +1902,7 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -1948,7 +1951,7 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
@@ -1959,10 +1962,10 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1970,10 +1973,10 @@
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1989,7 +1992,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1997,10 +2000,10 @@
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2011,7 +2014,7 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2022,7 +2025,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2033,7 +2036,7 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2044,7 +2047,7 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2093,7 +2096,7 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2148,12 +2151,12 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2235,7 +2238,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2303,7 +2306,7 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
@@ -2314,10 +2317,10 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2328,7 +2331,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2355,7 +2358,7 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2363,10 +2366,10 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2377,7 +2380,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2388,7 +2391,7 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2399,7 +2402,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2410,7 +2413,7 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2459,7 +2462,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2514,12 +2517,12 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2668,7 +2671,7 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
@@ -2679,10 +2682,10 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2698,7 +2701,7 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2706,10 +2709,10 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2720,7 +2723,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2731,7 +2734,7 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2742,7 +2745,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2753,7 +2756,7 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2802,7 +2805,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2857,12 +2860,12 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2943,8 +2946,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3011,7 +3014,7 @@
       <c r="B6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -3022,10 +3025,10 @@
       <c r="B7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3063,7 +3066,7 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3074,7 +3077,7 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3085,7 +3088,7 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3096,7 +3099,7 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3107,7 +3110,7 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3118,12 +3121,12 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3172,7 +3175,7 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3183,7 +3186,7 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3194,7 +3197,7 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3205,7 +3208,7 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3216,7 +3219,7 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3227,7 +3230,7 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3238,7 +3241,7 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3333,14 +3336,147 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="36.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="49.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="2:4">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="名胜古迹" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="非遗民俗" sheetId="3" r:id="rId3"/>
     <sheet name="美食文化" sheetId="4" r:id="rId4"/>
     <sheet name="用户画像" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="分析报告" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="161">
   <si>
     <t>表名</t>
   </si>
@@ -494,6 +494,27 @@
   </si>
   <si>
     <t>评论 ID，引用 user_comment_tag 表的 comment_id</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>report_id</t>
+  </si>
+  <si>
+    <t>报告id（主键）</t>
+  </si>
+  <si>
+    <t>标签ID(外键）</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>报告内容</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1467,7 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2943,8 +2964,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3333,14 +3354,70 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="13.4166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
